--- a/data/regression/results/gradient_boosting_importance.xlsx
+++ b/data/regression/results/gradient_boosting_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,77 +452,77 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1147532450640007</v>
+        <v>0.116380926067028</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bienestar</t>
+          <t>dayoftheweek</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1066134123126384</v>
+        <v>0.1109110101242804</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>otrofactor</t>
+          <t>bienestar</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.09003276432149339</v>
+        <v>0.1007299935070836</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>dayoftheweek</t>
+          <t>otrofactor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08117941093049422</v>
+        <v>0.08892664817517372</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>index</t>
+          <t>Totaltime</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05313406277494648</v>
+        <v>0.05514584963578424</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>covid_work</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02556588684494138</v>
+        <v>0.02940486319899676</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>ID_Zenodo</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02414966705954422</v>
+        <v>0.02637325972750065</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02129074192263519</v>
+        <v>0.02586650212183141</v>
       </c>
     </row>
     <row r="10">
@@ -532,693 +532,693 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02002608118706685</v>
+        <v>0.02532389686885356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Totaltime</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01798822222729338</v>
+        <v>0.02175693752376663</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Houron_minute</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01759689605076691</v>
+        <v>0.02029547026417793</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01438636375708873</v>
+        <v>0.01804813490504954</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ID_Zenodo</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01437178436755602</v>
+        <v>0.01784814299926581</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Houron_hour</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01400740927307319</v>
+        <v>0.01779571459364558</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01354244263153487</v>
+        <v>0.01748396975321707</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>humi_24h</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0134729870839681</v>
+        <v>0.01721760386938309</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>no2gps_12h</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01307759647155392</v>
+        <v>0.01677011747344029</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01284952318108468</v>
+        <v>0.01619617226508381</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01276824825736834</v>
+        <v>0.01616346328397215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>psycho</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0126294469798497</v>
+        <v>0.0143986335347688</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>z_mean_incongruent</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01254788293009928</v>
+        <v>0.01392834353002987</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>no2bcn_24h_x30</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01234572330318837</v>
+        <v>0.01174252757960664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>district_sant andreu</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01165360681273876</v>
+        <v>0.01156076884996708</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>horasfuera</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.01131082967418471</v>
+        <v>0.009712726761449252</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>horasfuera</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.01122485726255102</v>
+        <v>0.009550480511039738</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>z_mean_incongruent</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.01121985303663361</v>
+        <v>0.008202600016482575</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.01096339444333459</v>
+        <v>0.008121711259463343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>humi_24h</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0100336665944925</v>
+        <v>0.008104030990460941</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.009901794396830857</v>
+        <v>0.008004026984634113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.009411938638981706</v>
+        <v>0.007893560953437588</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.009126038854396839</v>
+        <v>0.007861432039288336</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Houroff_hour</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.008862471635246611</v>
+        <v>0.007705955609104876</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>district_gràcia</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.008818654937547164</v>
+        <v>0.006296645245353921</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.008594319155726404</v>
+        <v>0.00599080112600493</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.008585630189341113</v>
+        <v>0.00595155911382231</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>yearbirth</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.008262710759845268</v>
+        <v>0.005924208190162658</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>covid_work</t>
+          <t>district_sant andreu</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.008196652353693778</v>
+        <v>0.0058859236419568</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>no2gps_12h_x30</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.00797411760234432</v>
+        <v>0.005764987827471184</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>district_ciutat vella</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.007910224097760021</v>
+        <v>0.005679531621236863</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>district_gràcia</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.007475030673568614</v>
+        <v>0.005571006164952046</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.007189406477133769</v>
+        <v>0.005458355015637223</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.006900707598182525</v>
+        <v>0.005117499199752795</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>hour</t>
+          <t>no2bcn_12h_x30</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.006660354461021051</v>
+        <v>0.004895053975070623</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.006397026088055867</v>
+        <v>0.004865275502354795</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>no2gps_24h_x30</t>
+          <t>no2bcn_12h</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.005974790574762628</v>
+        <v>0.004651908188878008</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.005590040760025933</v>
+        <v>0.003915400256216791</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>mean_incongruent</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.005396938484677655</v>
+        <v>0.003901272289081671</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>drogas</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.005394574391518562</v>
+        <v>0.003776496476389318</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.005394491444311839</v>
+        <v>0.003515177359518745</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>district_ciutat vella</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.005253329199324702</v>
+        <v>0.003406222744547966</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>psycho</t>
+          <t>access_greenbluespaces_300mbuff</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.005078874790777278</v>
+        <v>0.003406005821118531</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.00502716422706839</v>
+        <v>0.002789408283475769</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>enfermo</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.004930926611688891</v>
+        <v>0.002428564725233527</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>no2gps_24h_x30</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.004398168099306281</v>
+        <v>0.002230088852050443</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Houroff_minute</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.00401661275730941</v>
+        <v>0.002135283610536578</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.003627131131908366</v>
+        <v>0.002073366777323231</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>actividadfisica</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.0033641326930058</v>
+        <v>0.001827103979603956</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.003287963300898815</v>
+        <v>0.001268753731990717</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>actividadfisica</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.003266588804186028</v>
+        <v>0.001023294862167481</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>mean_incongruent</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.002453793874089452</v>
+        <v>0.0008691274458469888</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.002355871672152503</v>
+        <v>0.000803856351323414</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.001492746504267129</v>
+        <v>0.0007263200218112436</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>bebida</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.001326544092439047</v>
+        <v>0.0006925011897865697</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>district_eixample</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.00120992334207158</v>
+        <v>0.0005054397998591956</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>bebida</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0009884431674822142</v>
+        <v>0.0004497182900803594</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0009604481431061069</v>
+        <v>0.0004404265183436154</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>dieta</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0009293467583108263</v>
+        <v>0.0003379408237722705</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.0009174519512892539</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>mentalhealth_survey</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.0007192058294129935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>enfermo</t>
+          <t>dieta</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.0006690596629212205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.0004469370827346064</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>drogas</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.0002134907388948524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>district_sant martí</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.0001218996745275448</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>incidence_cat_no incidence</t>
+          <t>hours_greenblue_day</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.0001132481512466051</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5.597158670239782e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.945768487882236e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>incidence_cat_mobility incidence</t>
+          <t>maxwindspeed_24h</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.348136904759323e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>correct</t>
+          <t>precip_24h_binary</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>mentalhealth_survey</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hours_greenblue_day</t>
+          <t>Totaltime_estimated</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Totaltime_estimated</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>maxwindspeed_12h</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>precip_24h</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>precip_12h</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>precip_12h_binary</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>precip_24h_binary</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>maxwindspeed_24h</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -1338,80 +1338,10 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>incidence_cat_physical and mobility incidences</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>district_les corts</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>district_horta-guinardo</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>district_eixample</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>district_nou barris</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>district_sants-montjuïc</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>district_sarria sant-gervasi</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>incidence_cat_physical and mobility incidences</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/regression/results/gradient_boosting_importance.xlsx
+++ b/data/regression/results/gradient_boosting_importance.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B91"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,41 +448,41 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ordenador</t>
+          <t>dayoftheweek</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.116380926067028</v>
+        <v>0.1347873306270367</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>dayoftheweek</t>
+          <t>ordenador</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1109110101242804</v>
+        <v>0.1083758152312111</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bienestar</t>
+          <t>otrofactor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1007299935070836</v>
+        <v>0.08859278412501362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>otrofactor</t>
+          <t>bienestar</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.08892664817517372</v>
+        <v>0.08613544612573618</v>
       </c>
     </row>
     <row r="6">
@@ -492,417 +492,417 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.05514584963578424</v>
+        <v>0.04709965695100463</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>covid_work</t>
+          <t>mean_congruent</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02940486319899676</v>
+        <v>0.03014340022634168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ID_Zenodo</t>
+          <t>µgm3</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02637325972750065</v>
+        <v>0.02990238138610972</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>sec_noise55_day</t>
+          <t>horasfuera</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02586650212183141</v>
+        <v>0.02350608821931999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>inhib_control</t>
+          <t>covid_work</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02532389686885356</v>
+        <v>0.02127621812706163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>pm25bcn</t>
+          <t>sec_noise55_day</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02175693752376663</v>
+        <v>0.02059681568616728</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>mean_congruent</t>
+          <t>ID_Zenodo</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02029547026417793</v>
+        <v>0.01984703366671456</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>age_yrs</t>
+          <t>no2gps_24h</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01804813490504954</v>
+        <v>0.01954207976830025</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>tmean_24h</t>
+          <t>energia</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01784814299926581</v>
+        <v>0.01882466725197149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>z_performance</t>
+          <t>z_mean_incongruent</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01779571459364558</v>
+        <v>0.0178249700142237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>µgm3</t>
+          <t>district_gràcia</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01748396975321707</v>
+        <v>0.01581150354779438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>humi_24h</t>
+          <t>no2bcn_24h</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.01721760386938309</v>
+        <v>0.01572540923157431</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>no2gps_12h</t>
+          <t>covid_motor</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.01677011747344029</v>
+        <v>0.01522874879439117</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>covid_motor</t>
+          <t>covid_mood</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.01619617226508381</v>
+        <v>0.01502352122865085</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>sec_noise65_day</t>
+          <t>pressure_12h</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01616346328397215</v>
+        <v>0.01472818085200274</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>psycho</t>
+          <t>min_gps</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0143986335347688</v>
+        <v>0.01400465848900354</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>z_mean_incongruent</t>
+          <t>inhib_control</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.01392834353002987</v>
+        <v>0.01364423220359013</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>no2bcn_24h_x30</t>
+          <t>occurrence_mental</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.01174252757960664</v>
+        <v>0.01340876867671917</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>tmean_12h</t>
+          <t>district_horta-guinardo</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.01156076884996708</v>
+        <v>0.0132014337631441</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>horasfuera</t>
+          <t>pressure_24h</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.009712726761449252</v>
+        <v>0.01316658066010669</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>humi_12h</t>
+          <t>humi_24h</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.009550480511039738</v>
+        <v>0.01157892575697081</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>occurrence_mental</t>
+          <t>tmean_24h</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.008202600016482575</v>
+        <v>0.01147149713055078</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>covid_mood</t>
+          <t>tmean_12h</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008121711259463343</v>
+        <v>0.01020652642779554</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>energia</t>
+          <t>pm25bcn</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.008104030990460941</v>
+        <v>0.01012359511507777</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>no2gps_24h</t>
+          <t>z_performance</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.008004026984634113</v>
+        <v>0.009841909601417525</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>no2bcn_24h</t>
+          <t>age_yrs</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.007893560953437588</v>
+        <v>0.009540445651599526</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>covid_sleep</t>
+          <t>performance</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.007861432039288336</v>
+        <v>0.009409083442414212</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pressure_24h</t>
+          <t>humi_12h</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.007705955609104876</v>
+        <v>0.008835169555840809</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>sueno</t>
+          <t>covid_sleep</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.006296645245353921</v>
+        <v>0.007520321744646813</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>education</t>
+          <t>dieta</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.00599080112600493</v>
+        <v>0.007388295062766373</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>district_horta-guinardo</t>
+          <t>access_greenbluespaces_300mbuff</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.00595155911382231</v>
+        <v>0.00626897684304704</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>covid_electric</t>
+          <t>gender</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.005924208190162658</v>
+        <v>0.005919607159344277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>district_sant andreu</t>
+          <t>sueno</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0058859236419568</v>
+        <v>0.005396897080801166</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>no2gps_12h_x30</t>
+          <t>BCμg</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.005764987827471184</v>
+        <v>0.005338690528215329</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>district_ciutat vella</t>
+          <t>z_inhib_control</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.005679531621236863</v>
+        <v>0.005276478891988657</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>district_gràcia</t>
+          <t>sec_noise65_day</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.005571006164952046</v>
+        <v>0.005084075417739217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>z_inhib_control</t>
+          <t>district_eixample</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.005458355015637223</v>
+        <v>0.005016189898846654</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>gender</t>
+          <t>smoke</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.005117499199752795</v>
+        <v>0.004954566804705705</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>no2bcn_12h_x30</t>
+          <t>incidence_cat_physical incidence</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.004895053975070623</v>
+        <v>0.004952266757802676</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>incidence_cat_physical incidence</t>
+          <t>district_sant andreu</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.004865275502354795</v>
+        <v>0.004904297136975564</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>no2bcn_12h</t>
+          <t>psycho</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.004651908188878008</v>
+        <v>0.00466243140129375</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>occurrence_stroop</t>
+          <t>district_ciutat vella</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.003915400256216791</v>
+        <v>0.004583184526217233</v>
       </c>
     </row>
     <row r="48">
@@ -912,213 +912,213 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.003901272289081671</v>
+        <v>0.00319344644010116</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>drogas</t>
+          <t>incidence_cat_physical and mobility incidences</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.003776496476389318</v>
+        <v>0.003149003600792241</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>performance</t>
+          <t>response_duration_ms</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.003515177359518745</v>
+        <v>0.003131048746566031</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>response_duration_ms</t>
+          <t>sec_greenblue_day</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003406222744547966</v>
+        <v>0.003079278503574541</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>access_greenbluespaces_300mbuff</t>
+          <t>covid_bikewalk</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003406005821118531</v>
+        <v>0.002571453633187974</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>min_gps</t>
+          <t>actividadfisica</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.002789408283475769</v>
+        <v>0.002461414753259502</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>enfermo</t>
+          <t>education</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.002428564725233527</v>
+        <v>0.002449842343556011</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>no2gps_24h_x30</t>
+          <t>occurrence_stroop</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.002230088852050443</v>
+        <v>0.001922464261122893</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>sec_greenblue_day</t>
+          <t>enfermo</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.002135283610536578</v>
+        <v>0.00183329418198523</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>smoke</t>
+          <t>bebida</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.002073366777323231</v>
+        <v>0.001736156143500022</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>pressure_12h</t>
+          <t>covid_electric</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.001827103979603956</v>
+        <v>0.001536214813394598</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>district_nou barris</t>
+          <t>drogas</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.001268753731990717</v>
+        <v>0.001500825863009988</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>actividadfisica</t>
+          <t>hour_gps</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.001023294862167481</v>
+        <v>0.0009657569107859484</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>alcohol</t>
+          <t>district_nou barris</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.0008691274458469888</v>
+        <v>0.0006070373003165739</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>covid_espacios</t>
+          <t>district_sants-montjuïc</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.000803856351323414</v>
+        <v>0.000527087935867985</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BCμg</t>
+          <t>covid_public_trans</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.0007263200218112436</v>
+        <v>0.0002949171324449144</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>bebida</t>
+          <t>hours_noise_65_day</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.0006925011897865697</v>
+        <v>0.0002518630618954671</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>district_eixample</t>
+          <t>incidence_cat_mobility incidence</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.0005054397998591956</v>
+        <v>8.823789082197871e-05</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>covid_public_trans</t>
+          <t>incidence_cat_no incidence</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.0004497182900803594</v>
+        <v>2.287045834461615e-05</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>incidence_cat_no incidence</t>
+          <t>hours_noise_55_day</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.0004404265183436154</v>
+        <v>6.629236225321693e-06</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>hour_gps</t>
+          <t>mentalhealth_survey</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.0003379408237722705</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>correct</t>
+          <t>alcohol</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>mentalhealth_survey</t>
+          <t>correct</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>dieta</t>
+          <t>maxwindspeed_12h</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>hours_noise_65_day</t>
+          <t>maxwindspeed_24h</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>hours_noise_55_day</t>
+          <t>precip_24h_binary</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>precip_24h</t>
+          <t>precip_12h</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>hours_greenblue_day</t>
+          <t>precip_12h_binary</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>noise_total_LDEN_55</t>
+          <t>precip_24h</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>maxwindspeed_12h</t>
+          <t>hours_greenblue_day</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>maxwindspeed_24h</t>
+          <t>noise_total_LDEN_55</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>precip_24h_binary</t>
+          <t>covid_aire</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>precip_12h</t>
+          <t>Totaltime_estimated</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>precip_12h_binary</t>
+          <t>covid_espacios</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Totaltime_estimated</t>
+          <t>district_les corts</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>covid_aire</t>
+          <t>district_16</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>covid_bikewalk</t>
+          <t>district_sarria sant-gervasi</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -1278,70 +1278,10 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>district_16</t>
+          <t>district_sant martí</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>district_les corts</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>district_sant martí</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>district_sarria sant-gervasi</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>district_sants-montjuïc</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>incidence_cat_mobility incidence</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>incidence_cat_physical and mobility incidences</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
         <v>0</v>
       </c>
     </row>
